--- a/PARAMETERS.xlsx
+++ b/PARAMETERS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d645daar\Documents\Codes\fanScraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1ECD868-327C-4266-9D51-AF92A87391F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BFD07B-7749-4E61-BBCF-760AAD24AEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="930" yWindow="0" windowWidth="28110" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
   <si>
     <t>Version</t>
   </si>
@@ -92,27 +92,12 @@
     <t>Airflow</t>
   </si>
   <si>
-    <t>m</t>
-  </si>
-  <si>
     <t>extractFeatures</t>
   </si>
   <si>
-    <t>fancaudal de aire</t>
-  </si>
-  <si>
-    <t>húmedas)</t>
-  </si>
-  <si>
-    <t>Potencia</t>
-  </si>
-  <si>
     <t>Velocidad (nominal)</t>
   </si>
   <si>
-    <t>incl. el control de velocidad</t>
-  </si>
-  <si>
     <t>Static Press.</t>
   </si>
   <si>
@@ -125,10 +110,28 @@
     <t>Consump. kW</t>
   </si>
   <si>
-    <t>Pa</t>
-  </si>
-  <si>
-    <t>kW</t>
+    <t xml:space="preserve">húmedas) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potencia nominal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">incl. el control de velocidad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fancaudal de aire </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> m</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kW</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RPM</t>
   </si>
 </sst>
 </file>
@@ -172,9 +175,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,14 +468,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="20.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -485,152 +498,152 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="E9" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>30</v>
       </c>
     </row>
